--- a/data/output/prediction_Close_BNB.xlsx
+++ b/data/output/prediction_Close_BNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +458,7 @@
         <v>0.0449631407461295</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0006139511933795916</v>
+        <v>0.0006138989740893663</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.002382979851068612</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06152841315326185</v>
+        <v>0.06152855716974237</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>-0.05845933767921885</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05214928615285963</v>
+        <v>0.05214927618481724</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.006825965070400564</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.04688653162444112</v>
+        <v>-0.04688671782810871</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>-0.02979871644651144</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.01992861013985703</v>
+        <v>-0.01992846083740218</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.01391963866658052</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03630056167199491</v>
+        <v>-0.03630060775992128</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-0.01097304353277551</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.006182424548773824</v>
+        <v>-0.0061824239086814</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>-0.02081085881853806</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.006602915185629499</v>
+        <v>-0.006602862226305461</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>-0.008674389673570815</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02136562001574127</v>
+        <v>-0.02136572342954146</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.04191230900224596</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01742774722772289</v>
+        <v>-0.01742774628892363</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.005072474644317815</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02946968185690224</v>
+        <v>0.02946962751795823</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>-0.002170767856770617</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02028800547912368</v>
+        <v>0.02028810888177901</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>-0.01385871925639481</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004594878475963071</v>
+        <v>0.00459487800193159</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.03358322460417273</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00796211004945846</v>
+        <v>-0.007962316729516417</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.008838664576255262</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002646513878531209</v>
+        <v>0.002646565891357255</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.002460890677678407</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01477182908523034</v>
+        <v>0.0147718808238384</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.007346543449497922</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.005116773069479663</v>
+        <v>-0.005116824310951174</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.03190117884637989</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008906010677121046</v>
+        <v>0.008906163492866881</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>-0.006775093666361087</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02093312319408014</v>
+        <v>0.02093312108991441</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>-0.02477759240771604</v>
       </c>
       <c r="B22" t="n">
-        <v>0.005086278783874576</v>
+        <v>0.005086080348297273</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>-0.01651188050017804</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.005924217840890478</v>
+        <v>-0.005924118875421769</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>-0.03900819588545357</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01449288376219471</v>
+        <v>-0.01449278275537935</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>-0.0003683919732209162</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.02739012349140069</v>
+        <v>-0.0273901725923924</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>-0.001843998309719375</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.004555389673498667</v>
+        <v>-0.004555493722138593</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.002580646593491664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00210477024987199</v>
+        <v>0.002104978492218024</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>-0.008133131708278007</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005994534940302998</v>
+        <v>0.005994482285165859</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.02275327516324044</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001679456952427216</v>
+        <v>0.001679353508034609</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>-0.009112510659844197</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01257060957335732</v>
+        <v>0.01257076254448997</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>-0.004035962183661645</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.007766135163812748</v>
+        <v>-0.007766288134945398</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>-0.01109068669415869</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00858761550875542</v>
+        <v>-0.008587719171003982</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>0.004080881196730779</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.009682597273567239</v>
+        <v>-0.009682336605076003</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>0.01470074251017017</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0003147480027134719</v>
+        <v>0.0003147479533041064</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>0.03618521235426009</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008503606628471161</v>
+        <v>0.008503397795701417</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>0.02089212478708724</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03792225184742826</v>
+        <v>0.03792230372336469</v>
       </c>
     </row>
     <row r="37">
@@ -738,7 +738,7 @@
         <v>0.03832148682991221</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.003937735766957218</v>
+        <v>-0.003937638718657155</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>0.08921885256295159</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.001791951715237161</v>
+        <v>-0.001791951541173731</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>-0.005541886104904137</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0004081534116728847</v>
+        <v>0.0004081533719979547</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>-0.01148902561466958</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.01982575314808344</v>
+        <v>-0.019825850330772</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>0.0286305533799478</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.01910767868027108</v>
+        <v>-0.01910752711882857</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>0.07341403969754623</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.005841636912469639</v>
+        <v>-0.005841636024511487</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>-0.05090746328774642</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04350320782523909</v>
+        <v>0.04350324998856969</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>-0.0289002654153272</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.01385643135569303</v>
+        <v>-0.0138566259684243</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>-0.2028110417921614</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.07985570324950864</v>
+        <v>-0.07985564981646043</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>0.1286560782613488</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1477979236897742</v>
+        <v>-0.1477979151790336</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>-0.04576841845558111</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01421707381032178</v>
+        <v>0.01421707293589414</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>-0.04004750112927535</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006356252559591269</v>
+        <v>0.006356130807807503</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>-0.007194275634026859</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.009377087567214559</v>
+        <v>-0.009376965630671918</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>-0.01895100447029474</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005238489791871359</v>
+        <v>0.005238489471832253</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>-0.014452725166481</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.02029799658321529</v>
+        <v>-0.02029799533373833</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>0.02287922675817722</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004535999001729962</v>
+        <v>0.004536060622431393</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>-0.07655251459810763</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005419552172616804</v>
+        <v>0.005419489935915678</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>0.04918394247733637</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0450257620898924</v>
+        <v>-0.04502582365745056</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>0.1136500220706935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.006819837120012551</v>
+        <v>0.006819773154694175</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>0.00467446594069898</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02987235948570799</v>
+        <v>0.02987248553380439</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>0.001996672876323657</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0310831415252526</v>
+        <v>0.03108319980793794</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>-0.02456795280753354</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0017387455770006</v>
+        <v>-0.001738805654998288</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>0.006452730829128228</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03353063423974589</v>
+        <v>-0.03353063218399477</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>0.01745010722159446</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.009099558301240762</v>
+        <v>-0.009099494818260112</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>-0.02799980520167367</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03510253127685203</v>
+        <v>0.03510228396463866</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>0.003756193591680557</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.008120999545745633</v>
+        <v>-0.008120755583123085</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>-0.01718846029808674</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01138788313199512</v>
+        <v>0.01138776065538849</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>0.006221935039293136</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.01389591733660467</v>
+        <v>-0.01389585594452036</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>-0.02089212478708724</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004765545071014898</v>
+        <v>0.004765422578710599</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>0.02158106728764064</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.01057509972410031</v>
+        <v>-0.01057497687409459</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>-0.01526747213078838</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01599008297881532</v>
+        <v>0.01599020353977565</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>-0.03522869188374322</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00290230396736213</v>
+        <v>0.002902061062478367</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>-0.01422602871874368</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01014394516542616</v>
+        <v>0.010144065742141</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>-0.01667013969105824</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01875360881318322</v>
+        <v>0.01875378430326613</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>-0.0338113878995614</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01331837706614714</v>
+        <v>0.0133181415934871</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>-0.1127724258285232</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.01221503114234501</v>
+        <v>-0.01221520755212779</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>0.03902106586282983</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0453946199526527</v>
+        <v>-0.04539432047463343</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>0.04474109349509447</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02569796228988785</v>
+        <v>-0.02569783281448856</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>-0.02090108240579358</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01941489140600972</v>
+        <v>0.01941482462824418</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>-0.001626016618418546</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007408880558280373</v>
+        <v>0.007409002116789409</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>0.001626016618418546</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007725657854152246</v>
+        <v>0.007725411521629866</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>-0.007747235486658788</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.005786171475387292</v>
+        <v>-0.005786293813036636</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>0.00977604527161624</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02653643694966945</v>
+        <v>0.0265364982954619</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>-0.008957714620383861</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003266878163248776</v>
+        <v>0.003266937707707029</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>0.00733499621156497</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02688457456138771</v>
+        <v>-0.02688457293884738</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>-0.002032107994557109</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.006960505903592207</v>
+        <v>-0.006960505476355294</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>-0.002443993069878303</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.000912935226457634</v>
+        <v>-0.0009129351701986366</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>0.003663753334953945</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01401929379191991</v>
+        <v>0.01401941451809385</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>0.0507039293604814</v>
       </c>
       <c r="B86" t="n">
-        <v>0.002203295387067428</v>
+        <v>0.002202991693526002</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>-0.008533798880397292</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.002011392736243067</v>
+        <v>-0.002011210638809047</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>0.01238885377035004</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.003383170821594561</v>
+        <v>-0.003383536534915521</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>0.04770857761498792</v>
       </c>
       <c r="B89" t="n">
-        <v>0.007426738489773044</v>
+        <v>0.007426982887240641</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>0.01637293260650008</v>
       </c>
       <c r="B90" t="n">
-        <v>0.00961086205642836</v>
+        <v>0.009610922591720694</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>0.02740872766888813</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0111515721999762</v>
+        <v>0.01115151290858662</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>0.0101310910196819</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02314686921605613</v>
+        <v>0.02314692850744571</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>0.02064056764707178</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04101435409019594</v>
+        <v>0.04101440969684589</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>0.01788473518611244</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0519982827215788</v>
+        <v>0.05199817432583664</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>0.001336898594841429</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0789961077670025</v>
+        <v>0.0789965507913557</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>-0.0433440990962044</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02685050887141749</v>
+        <v>0.02685011863615649</v>
       </c>
     </row>
     <row r="97">
@@ -1234,7 +1234,7 @@
         <v>-0.01585761673333952</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02612394036532173</v>
+        <v>0.02612385067168965</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.02173998663640564</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.004649657673336804</v>
+        <v>-0.004649477868063912</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>-0.007194275634026859</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01544455995661664</v>
+        <v>0.01544455857557381</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>0.01077209698191073</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002546163410960034</v>
+        <v>0.002546251690278112</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>-0.002600781700056842</v>
       </c>
       <c r="B104" t="n">
-        <v>0.001479239448809011</v>
+        <v>0.001479239187162307</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>0.0155041865359653</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.01178063818526986</v>
+        <v>-0.01178072551214093</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>0.01589858606779782</v>
       </c>
       <c r="B106" t="n">
-        <v>0.003790533836600218</v>
+        <v>0.003790622581366421</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>0.02029734006367523</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02532921277136602</v>
+        <v>0.02532894775017525</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>0.02653808323823892</v>
       </c>
       <c r="B108" t="n">
-        <v>0.006712937844120859</v>
+        <v>0.006713197246975611</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>-0.02406818386592224</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.07842984551354e-05</v>
+        <v>-1.069802175734935e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>0.0264734766671717</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.02354481091187743</v>
+        <v>-0.02354506973640369</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>-0.01451931132445328</v>
       </c>
       <c r="B111" t="n">
-        <v>0.007100248851111601</v>
+        <v>0.007100511967081502</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>-0.06938469543240711</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.006330570076386266</v>
+        <v>-0.006330656667731915</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>-0.001307189728621871</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.04691549639434989</v>
+        <v>-0.04691558041711552</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>-0.0383316382555341</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.02466056582232845</v>
+        <v>-0.02466056351281942</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>0.006435246594270971</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.01127486257838761</v>
+        <v>-0.01127457384420438</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>0.06912790625861032</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02551687949892667</v>
+        <v>0.02551640248273479</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>-0.04182018210477789</v>
       </c>
       <c r="B117" t="n">
-        <v>0.07399954698242439</v>
+        <v>0.07399990086375219</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>0.02786056455262198</v>
       </c>
       <c r="B118" t="n">
-        <v>0.003319149205207594</v>
+        <v>0.003318888794520802</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>0.007638483988785083</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03724798878212177</v>
+        <v>0.03724815548745042</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>-0.01244233630143032</v>
       </c>
       <c r="B120" t="n">
-        <v>0.02918862520429499</v>
+        <v>0.02918862040872483</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>0.002885079738023322</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.006449054157652512</v>
+        <v>-0.006449216067411001</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>-0.01321108307342644</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.02076980487507818</v>
+        <v>-0.02076972168643465</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>-0.01965343310669176</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.005903319917285543</v>
+        <v>-0.005903235743565105</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>0.007579538675648756</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.02760978466234754</v>
+        <v>-0.02760986600091542</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>-0.01056115426866633</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.00771114980222265</v>
+        <v>-0.007711235826018736</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>0.004303929835277387</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.01213779893365441</v>
+        <v>-0.01213771118531781</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>-0.009626630359175437</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01898618807683228</v>
+        <v>0.01898627252458063</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>-0.03185630271785644</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.001066893268665936</v>
+        <v>-0.001067151654710941</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>-0.00899348849737347</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.03846942590521252</v>
+        <v>-0.03846951885573979</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>0.005198417528822219</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.01197874757367856</v>
+        <v>-0.01197838713395427</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>-0.00763362485507102</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.008578239863872739</v>
+        <v>-0.008578329732527479</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>-0.03545213525808588</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.01601527265553671</v>
+        <v>-0.0160151782728164</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>0.001082056011798116</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.05374447946524263</v>
+        <v>-0.05374456724205601</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>0.1043145470497242</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.02916803256960776</v>
+        <v>-0.02916813060609691</v>
       </c>
     </row>
     <row r="135">
@@ -1530,7 +1530,7 @@
         <v>0.07270780390481058</v>
       </c>
       <c r="B137" t="n">
-        <v>0.008590414658550927</v>
+        <v>0.008590498144361192</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>0.02843226086946604</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02077650928915098</v>
+        <v>0.02077650757250282</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>-0.01906521851709719</v>
       </c>
       <c r="B139" t="n">
-        <v>0.06327007006001573</v>
+        <v>0.06327014180262402</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>0.005698021114637797</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03191173131500236</v>
+        <v>0.03191172649351692</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>-0.04058528011507789</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02767672724988657</v>
+        <v>0.02767657855960159</v>
       </c>
     </row>
     <row r="142">
